--- a/Data/EC/NIT-9009098257.xlsx
+++ b/Data/EC/NIT-9009098257.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC6EB1F-A587-42E9-B6CA-118CA81D920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5018B6B-76E6-41D0-8FEB-4B0436AE9F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84A69940-B808-402D-A71A-3C6B5C04E955}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BBC04AB-1F64-4A62-9BF8-808B53921072}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,169 +71,169 @@
     <t>WISTON MANUEL ESTAN DOMINGUEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1129567496</t>
+  </si>
+  <si>
+    <t>OLGA PATRICIA ORTEGA OROZCO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1129567496</t>
-  </si>
-  <si>
-    <t>OLGA PATRICIA ORTEGA OROZCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -277,7 +277,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +332,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -345,9 +347,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -547,23 +547,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +591,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,13 +632,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -647,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1777C67-9EF2-B9BE-66D2-366D999D510C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F97CE2B-8CBF-7650-D375-E133230CA692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,7 +669,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -998,28 +998,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2B30D4-1454-49B9-BEBB-F638033EBEC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B08AE-9F63-4106-B295-62005DB0E3DA}">
   <dimension ref="B2:J127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1032,7 +1032,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1043,7 +1043,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1054,7 +1054,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1065,8 +1065,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
@@ -1081,8 +1081,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1097,8 +1097,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
@@ -1113,8 +1113,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>69</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28826</v>
+        <v>37600</v>
       </c>
       <c r="G16" s="18">
         <v>940000</v>
@@ -1185,30 +1185,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G17" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>37600</v>
@@ -1231,30 +1231,30 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G19" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1277,30 +1277,30 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G21" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>37600</v>
@@ -1323,30 +1323,30 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G23" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>37600</v>
@@ -1369,30 +1369,30 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G25" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>37600</v>
@@ -1415,30 +1415,30 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G27" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>37600</v>
@@ -1461,30 +1461,30 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G29" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>37600</v>
@@ -1507,30 +1507,30 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G31" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>37600</v>
@@ -1553,30 +1553,30 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G33" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>37600</v>
@@ -1599,30 +1599,30 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G35" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>37600</v>
@@ -1645,30 +1645,30 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G37" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>37600</v>
@@ -1691,30 +1691,30 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G39" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>37600</v>
@@ -1737,30 +1737,30 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G41" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>37600</v>
@@ -1783,30 +1783,30 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G43" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>37600</v>
@@ -1829,30 +1829,30 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G45" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>37600</v>
@@ -1875,30 +1875,30 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G47" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>37600</v>
@@ -1921,30 +1921,30 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G49" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>37600</v>
@@ -1967,30 +1967,30 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G51" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>37600</v>
@@ -2013,30 +2013,30 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G53" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>37600</v>
@@ -2059,30 +2059,30 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G55" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>37600</v>
@@ -2105,30 +2105,30 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G57" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>37600</v>
@@ -2151,30 +2151,30 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G59" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>37600</v>
@@ -2197,30 +2197,30 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G61" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>37600</v>
@@ -2243,30 +2243,30 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G63" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>37600</v>
@@ -2289,30 +2289,30 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G65" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>37600</v>
@@ -2335,30 +2335,30 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>37600</v>
+        <v>68000</v>
       </c>
       <c r="G67" s="18">
-        <v>940000</v>
+        <v>1700000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>37600</v>
@@ -2381,21 +2381,21 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>52134</v>
+        <v>68000</v>
       </c>
       <c r="G69" s="18">
         <v>1700000</v>
@@ -2404,41 +2404,41 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G70" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>68000</v>
@@ -2450,41 +2450,41 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G72" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>68000</v>
@@ -2496,41 +2496,41 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G74" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>68000</v>
@@ -2542,41 +2542,41 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G76" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>68000</v>
@@ -2588,41 +2588,41 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G78" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>68000</v>
@@ -2634,41 +2634,41 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G80" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>68000</v>
@@ -2680,41 +2680,41 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G82" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>68000</v>
@@ -2726,41 +2726,41 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G84" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>68000</v>
@@ -2772,41 +2772,41 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G86" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>68000</v>
@@ -2818,41 +2818,41 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G88" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>68000</v>
@@ -2864,41 +2864,41 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G90" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>68000</v>
@@ -2910,41 +2910,41 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G92" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>68000</v>
@@ -2956,41 +2956,41 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G94" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>68000</v>
@@ -3002,41 +3002,41 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G96" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>68000</v>
@@ -3048,41 +3048,41 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G98" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>68000</v>
@@ -3094,41 +3094,41 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G100" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>68000</v>
@@ -3140,41 +3140,41 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G102" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
         <v>68000</v>
@@ -3186,41 +3186,41 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G104" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
         <v>68000</v>
@@ -3232,41 +3232,41 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G106" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F107" s="18">
         <v>68000</v>
@@ -3278,41 +3278,41 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G108" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
         <v>68000</v>
@@ -3324,41 +3324,41 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G110" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
         <v>68000</v>
@@ -3370,41 +3370,41 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F112" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G112" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
         <v>68000</v>
@@ -3416,41 +3416,41 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G114" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F115" s="18">
         <v>68000</v>
@@ -3462,41 +3462,41 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F116" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G116" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
         <v>68000</v>
@@ -3508,41 +3508,41 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F118" s="18">
-        <v>68000</v>
+        <v>37600</v>
       </c>
       <c r="G118" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="F119" s="18">
         <v>68000</v>
@@ -3554,44 +3554,44 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F120" s="18">
-        <v>68000</v>
+        <v>28826</v>
       </c>
       <c r="G120" s="18">
-        <v>1700000</v>
+        <v>940000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D121" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="F121" s="24">
-        <v>68000</v>
+        <v>52134</v>
       </c>
       <c r="G121" s="24">
         <v>1700000</v>
@@ -3600,7 +3600,7 @@
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10">
       <c r="B126" s="32" t="s">
         <v>75</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10">
       <c r="B127" s="32" t="s">
         <v>74</v>
       </c>
